--- a/outputs-r202/c__Campylobacteria.xlsx
+++ b/outputs-r202/c__Campylobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,32 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG666.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.220446049250264e-14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9999999999999778</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>o__Campylobacterales</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>o__Campylobacterales</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-r202/c__Campylobacteria.xlsx
+++ b/outputs-r202/c__Campylobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>o__Campylobacterales</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>o__Campylobacterales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -498,6 +508,11 @@
         <v>0.9999999999999778</v>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>o__Campylobacterales</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>o__Campylobacterales</t>
         </is>
